--- a/OREI_files/10-herd data/excel files for data organization/all_huh.xlsx
+++ b/OREI_files/10-herd data/excel files for data organization/all_huh.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:40009_{AAB810E3-0B7E-469F-9B49-0B1FA2D9E10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47C1904-B18B-444B-A243-0D4C8F8FF773}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes and action items" sheetId="6" r:id="rId1"/>
@@ -2368,19 +2368,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2756,7 +2753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:XFD34"/>
@@ -2771,69 +2768,68 @@
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>580</v>
       </c>
@@ -2855,33 +2851,26 @@
       <c r="I2">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>227</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="9">
+      <c r="R2" s="6">
         <v>1</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s">
         <v>361</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
         <v>290</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
         <v>291</v>
       </c>
-      <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>581</v>
       </c>
@@ -2903,31 +2892,23 @@
       <c r="I3">
         <v>35</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="9">
+      <c r="R3" s="6">
         <v>2</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" t="s">
         <v>212</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" t="s">
         <v>213</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>580</v>
       </c>
@@ -2949,33 +2930,26 @@
       <c r="I4">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="9">
+      <c r="R4" s="6">
         <v>2</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" t="s">
         <v>289</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" t="s">
         <v>290</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" t="s">
         <v>291</v>
       </c>
-      <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>580</v>
       </c>
@@ -2997,33 +2971,26 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>211</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="9">
+      <c r="R5" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" t="s">
         <v>341</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" t="s">
         <v>290</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" t="s">
         <v>291</v>
       </c>
-      <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -3045,33 +3012,26 @@
       <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>211</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="9">
+      <c r="R6" s="6">
         <v>2</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" t="s">
         <v>365</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" t="s">
         <v>290</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" t="s">
         <v>291</v>
       </c>
-      <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>580</v>
       </c>
@@ -3093,33 +3053,26 @@
       <c r="I7">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>211</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="9">
+      <c r="R7" s="6">
         <v>2</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" t="s">
         <v>369</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" t="s">
         <v>290</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" t="s">
         <v>291</v>
       </c>
-      <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -3141,33 +3094,26 @@
       <c r="I8">
         <v>15</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>210</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="9">
+      <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" t="s">
         <v>379</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" t="s">
         <v>290</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" t="s">
         <v>291</v>
       </c>
-      <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>243</v>
       </c>
@@ -3186,31 +3132,23 @@
       <c r="I9">
         <v>10</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="9">
+      <c r="R9" s="6">
         <v>9</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" t="s">
         <v>248</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" t="s">
         <v>222</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>243</v>
       </c>
@@ -3229,31 +3167,23 @@
       <c r="I10">
         <v>10</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>247</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="9">
+      <c r="R10" s="6">
         <v>9</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" t="s">
         <v>257</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" t="s">
         <v>222</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>243</v>
       </c>
@@ -3272,31 +3202,23 @@
       <c r="I11">
         <v>10</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="9">
+      <c r="R11" s="6">
         <v>9</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" t="s">
         <v>262</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" t="s">
         <v>222</v>
       </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>267</v>
       </c>
@@ -3315,31 +3237,23 @@
       <c r="I12">
         <v>4</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>210</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>247</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="9">
+      <c r="R12" s="6">
         <v>9</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" t="s">
         <v>270</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" t="s">
         <v>222</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -3358,31 +3272,23 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>210</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>247</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9">
+      <c r="R13" s="6">
         <v>9</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" t="s">
         <v>310</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" t="s">
         <v>311</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>232</v>
       </c>
@@ -3401,23 +3307,11 @@
       <c r="I14">
         <v>15</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="9">
+      <c r="R14" s="6">
         <v>10</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>315</v>
       </c>
@@ -3436,23 +3330,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="9">
+      <c r="R15" s="6">
         <v>10</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>321</v>
       </c>
@@ -3471,23 +3353,11 @@
       <c r="I16">
         <v>18</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="9">
+      <c r="R16" s="6">
         <v>10</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>333</v>
       </c>
@@ -3506,23 +3376,11 @@
       <c r="I17">
         <v>29</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="9">
+      <c r="R17" s="6">
         <v>10</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>232</v>
       </c>
@@ -3541,23 +3399,11 @@
       <c r="I18">
         <v>15</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="9">
+      <c r="R18" s="6">
         <v>10</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>299</v>
       </c>
@@ -3576,23 +3422,11 @@
       <c r="I19">
         <v>7</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="9">
+      <c r="R19" s="6">
         <v>15</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>372</v>
       </c>
@@ -3611,31 +3445,23 @@
       <c r="I20">
         <v>9</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>373</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="9">
+      <c r="R20" s="6">
         <v>17</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" t="s">
         <v>374</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" t="s">
         <v>222</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>276</v>
       </c>
@@ -3654,23 +3480,11 @@
       <c r="I21">
         <v>29</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="9">
+      <c r="R21" s="6">
         <v>19</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>354</v>
       </c>
@@ -3689,94 +3503,67 @@
       <c r="I22">
         <v>28</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="9">
+      <c r="R22" s="6">
         <v>20</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+    <row r="26" spans="1:20" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" s="4"/>
     </row>
-    <row r="26" spans="1:22" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>580</v>
       </c>
@@ -3789,36 +3576,29 @@
       <c r="F27" t="s">
         <v>209</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>30</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>210</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>227</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9">
+      <c r="P27" s="6">
         <v>1</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" t="s">
         <v>399</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" t="s">
         <v>290</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" t="s">
         <v>291</v>
       </c>
-      <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>580</v>
       </c>
@@ -3831,36 +3611,29 @@
       <c r="F28" t="s">
         <v>288</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>16</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>210</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9">
+      <c r="P28" s="6">
         <v>2</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" t="s">
         <v>406</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" t="s">
         <v>290</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" t="s">
         <v>291</v>
       </c>
-      <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>580</v>
       </c>
@@ -3873,36 +3646,29 @@
       <c r="F29" t="s">
         <v>288</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>28</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9">
+      <c r="P29" s="6">
         <v>2</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" t="s">
         <v>293</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" t="s">
         <v>290</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" t="s">
         <v>291</v>
       </c>
-      <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>580</v>
       </c>
@@ -3915,36 +3681,29 @@
       <c r="F30" t="s">
         <v>278</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>22</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9">
+      <c r="P30" s="6">
         <v>2</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" t="s">
         <v>450</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" t="s">
         <v>290</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" t="s">
         <v>291</v>
       </c>
-      <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>580</v>
       </c>
@@ -3957,36 +3716,29 @@
       <c r="F31" t="s">
         <v>301</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>13</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>211</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9">
+      <c r="P31" s="6">
         <v>2</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" t="s">
         <v>461</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" t="s">
         <v>290</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" t="s">
         <v>291</v>
       </c>
-      <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>580</v>
       </c>
@@ -3999,36 +3751,29 @@
       <c r="F32" t="s">
         <v>269</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>211</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9">
+      <c r="P32" s="6">
         <v>2</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" t="s">
         <v>486</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" t="s">
         <v>290</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" t="s">
         <v>291</v>
       </c>
-      <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -4041,36 +3786,29 @@
       <c r="F33" t="s">
         <v>386</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>210</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>211</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9">
+      <c r="P33" s="6">
         <v>2</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" t="s">
         <v>506</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" t="s">
         <v>290</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S33" t="s">
         <v>291</v>
       </c>
-      <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>413</v>
       </c>
@@ -4080,34 +3818,26 @@
       <c r="F34" t="s">
         <v>411</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>26</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>247</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9">
+      <c r="P34" s="6">
         <v>9</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" t="s">
         <v>414</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R34" t="s">
         <v>222</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>439</v>
       </c>
@@ -4117,26 +3847,14 @@
       <c r="F35" t="s">
         <v>278</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9">
+      <c r="P35" s="6">
         <v>10</v>
       </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>444</v>
       </c>
@@ -4146,33 +3864,21 @@
       <c r="F36" t="s">
         <v>269</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>23</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9">
+      <c r="P36" s="6">
         <v>10</v>
       </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:21" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>593</v>
       </c>
       <c r="D37" t="s">
@@ -4184,45 +3890,38 @@
       <c r="F37" t="s">
         <v>246</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>22</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>451</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>476</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>477</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9">
+      <c r="P37" s="6">
         <v>11</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" t="s">
         <v>478</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R37" t="s">
         <v>474</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2" t="s">
+      <c r="T37" t="s">
         <v>479</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" t="s">
         <v>357</v>
       </c>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>501</v>
       </c>
@@ -4232,29 +3931,14 @@
       <c r="F38" t="s">
         <v>386</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9">
+      <c r="P38" s="6">
         <v>15</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>488</v>
       </c>
@@ -4264,37 +3948,26 @@
       <c r="F39" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>22</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" t="s">
         <v>210</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
         <v>489</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="9">
+      <c r="P39" s="6">
         <v>17</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" t="s">
         <v>490</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" t="s">
         <v>308</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>388</v>
       </c>
@@ -4304,36 +3977,21 @@
       <c r="F40" t="s">
         <v>386</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>14</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="9">
+      <c r="P40" s="6">
         <v>19</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>597</v>
       </c>
       <c r="D41" t="s">
@@ -4345,40 +4003,29 @@
       <c r="F41" t="s">
         <v>411</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>9</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>210</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>423</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="9">
+      <c r="P41" s="6">
         <v>21</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" t="s">
         <v>424</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" t="s">
         <v>421</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" t="s">
         <v>466</v>
       </c>
@@ -4388,45 +4035,38 @@
       <c r="F42" t="s">
         <v>335</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>28</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>467</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" t="s">
         <v>235</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" t="s">
         <v>467</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="9">
+      <c r="P42" s="6">
         <v>22</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q42" t="s">
         <v>468</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" t="s">
         <v>222</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2" t="s">
+      <c r="T42" t="s">
         <v>469</v>
       </c>
-      <c r="U42" s="2" t="s">
+      <c r="U42" t="s">
         <v>240</v>
       </c>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>495</v>
       </c>
@@ -4436,36 +4076,21 @@
       <c r="F43" t="s">
         <v>386</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <v>33</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="9">
+      <c r="P43" s="6">
         <v>23</v>
       </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:21" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>594</v>
       </c>
       <c r="D44" t="s">
@@ -4477,119 +4102,96 @@
       <c r="F44" t="s">
         <v>269</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <v>6</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" t="s">
         <v>235</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" t="s">
         <v>430</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" t="s">
         <v>210</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" t="s">
         <v>430</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="9">
+      <c r="P44" s="6">
         <v>26</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="Q44" t="s">
         <v>431</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="R44" t="s">
         <v>432</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2" t="s">
+      <c r="T44" t="s">
         <v>433</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" t="s">
         <v>222</v>
       </c>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T48" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>580</v>
       </c>
@@ -4608,39 +4210,26 @@
       <c r="H49">
         <v>23</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" t="s">
         <v>210</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" t="s">
         <v>211</v>
       </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="9">
+      <c r="Q49" s="6">
         <v>2</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R49" t="s">
         <v>400</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S49" t="s">
         <v>290</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" t="s">
         <v>291</v>
       </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>580</v>
       </c>
@@ -4659,39 +4248,26 @@
       <c r="H50">
         <v>17</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>210</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" t="s">
         <v>211</v>
       </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="9">
+      <c r="Q50" s="6">
         <v>2</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="R50" t="s">
         <v>512</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="S50" t="s">
         <v>290</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" t="s">
         <v>291</v>
       </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
         <v>501</v>
       </c>
@@ -4707,36 +4283,18 @@
       <c r="H51">
         <v>6</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="9">
+      <c r="Q51" s="6">
         <v>10</v>
       </c>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>595</v>
       </c>
       <c r="D52" t="s">
@@ -4754,45 +4312,35 @@
       <c r="H52">
         <v>20</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" t="s">
         <v>210</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" t="s">
         <v>516</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" t="s">
         <v>210</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" t="s">
         <v>516</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="9">
+      <c r="Q52" s="6">
         <v>11</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="R52" t="s">
         <v>517</v>
       </c>
-      <c r="S52" s="2" t="s">
+      <c r="S52" t="s">
         <v>518</v>
       </c>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2" t="s">
+      <c r="U52" t="s">
         <v>519</v>
       </c>
-      <c r="V52" s="2" t="s">
+      <c r="V52" t="s">
         <v>222</v>
       </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>526</v>
       </c>
@@ -4808,37 +4356,23 @@
       <c r="H53">
         <v>23</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
         <v>210</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" t="s">
         <v>489</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="9">
+      <c r="Q53" s="6">
         <v>17</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="R53" t="s">
         <v>529</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="S53" t="s">
         <v>308</v>
       </c>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>571</v>
       </c>
@@ -4854,32 +4388,14 @@
       <c r="H54">
         <v>6</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="9">
+      <c r="Q54" s="6">
         <v>20</v>
       </c>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
       <c r="D55" t="s">
         <v>532</v>
       </c>
@@ -4895,50 +4411,41 @@
       <c r="H55">
         <v>5</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" t="s">
         <v>210</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" t="s">
         <v>467</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" t="s">
         <v>235</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" t="s">
         <v>467</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="9">
+      <c r="Q55" s="6">
         <v>22</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="R55" t="s">
         <v>533</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="S55" t="s">
         <v>290</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" t="s">
         <v>291</v>
       </c>
-      <c r="U55" s="2" t="s">
+      <c r="U55" t="s">
         <v>534</v>
       </c>
-      <c r="V55" s="2" t="s">
+      <c r="V55" t="s">
         <v>535</v>
       </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="D56" t="s">
         <v>558</v>
       </c>
@@ -4954,53 +4461,47 @@
       <c r="H56">
         <v>34</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" t="s">
         <v>560</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" t="s">
         <v>467</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" t="s">
         <v>451</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" t="s">
         <v>467</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" t="s">
         <v>210</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="N56" t="s">
         <v>467</v>
       </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="9">
+      <c r="Q56" s="6">
         <v>22</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R56" t="s">
         <v>561</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S56" t="s">
         <v>562</v>
       </c>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2" t="s">
+      <c r="U56" t="s">
         <v>563</v>
       </c>
-      <c r="V56" s="2" t="s">
+      <c r="V56" t="s">
         <v>564</v>
       </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2" t="s">
+      <c r="X56" t="s">
         <v>565</v>
       </c>
-      <c r="Y56" s="2" t="s">
+      <c r="Y56" t="s">
         <v>222</v>
       </c>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>585</v>
       </c>
@@ -5019,56 +4520,48 @@
       <c r="H57">
         <v>25</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" t="s">
         <v>210</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" t="s">
         <v>323</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" t="s">
         <v>451</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" t="s">
         <v>323</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="9">
+      <c r="Q57" s="6">
         <v>27</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="R57" t="s">
         <v>539</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="S57" t="s">
         <v>290</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" t="s">
         <v>291</v>
       </c>
-      <c r="U57" s="2" t="s">
+      <c r="U57" t="s">
         <v>540</v>
       </c>
-      <c r="V57" s="2" t="s">
+      <c r="V57" t="s">
         <v>455</v>
       </c>
-      <c r="W57" s="2" t="s">
+      <c r="W57" t="s">
         <v>456</v>
       </c>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:25" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="8" t="s">
         <v>596</v>
       </c>
       <c r="D58" t="s">
@@ -5086,44 +4579,30 @@
       <c r="H58">
         <v>12</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" t="s">
         <v>549</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="9">
+      <c r="Q58" s="6">
         <v>29</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="R58" t="s">
         <v>550</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="S58" t="s">
         <v>238</v>
       </c>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="8" t="s">
         <v>596</v>
       </c>
       <c r="D59" t="s">
@@ -5141,109 +4620,81 @@
       <c r="H59">
         <v>13</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" t="s">
         <v>210</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" t="s">
         <v>549</v>
       </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="9">
+      <c r="Q59" s="6">
         <v>29</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="R59" t="s">
         <v>554</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="S59" t="s">
         <v>238</v>
       </c>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
+    <row r="62" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="T62" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>576</v>
       </c>
@@ -5259,28 +4710,21 @@
       <c r="H63">
         <v>22</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" t="s">
         <v>210</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" t="s">
         <v>467</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="9">
+      <c r="Q63" s="6">
         <v>22</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="R63" t="s">
         <v>577</v>
       </c>
-      <c r="S63" s="2" t="s">
+      <c r="S63" t="s">
         <v>222</v>
       </c>
-      <c r="T63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5293,16 +4737,16 @@
   <dimension ref="A1:GT22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="I21" sqref="A21:XFD21"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="11" max="11" width="33.08984375" customWidth="1"/>
     <col min="18" max="18" width="13.90625" customWidth="1"/>
-    <col min="24" max="31" width="8.7265625" style="3"/>
-    <col min="32" max="32" width="15" style="3" customWidth="1"/>
-    <col min="33" max="35" width="8.7265625" style="3"/>
+    <col min="24" max="31" width="8.7265625" style="2"/>
+    <col min="32" max="32" width="15" style="2" customWidth="1"/>
+    <col min="33" max="35" width="8.7265625" style="2"/>
     <col min="65" max="65" width="29.90625" customWidth="1"/>
     <col min="69" max="69" width="17.81640625" customWidth="1"/>
     <col min="70" max="70" width="18.26953125" customWidth="1"/>
@@ -5373,40 +4817,40 @@
       <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
@@ -8218,399 +7662,392 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:202" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:202" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" t="s">
         <v>606</v>
       </c>
       <c r="K8" t="s">
         <v>598</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="L8" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N8" t="s">
+        <v>203</v>
+      </c>
+      <c r="O8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P8" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>203</v>
+      </c>
+      <c r="R8" t="s">
         <v>205</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" t="s">
         <v>206</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" t="s">
         <v>207</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" t="s">
         <v>208</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" t="s">
         <v>209</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8">
         <v>35</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3">
+      <c r="AF8" s="2">
         <v>2</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AG8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AH8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AI8" s="3"/>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" t="s">
         <v>214</v>
       </c>
-      <c r="AY8" s="2" t="s">
+      <c r="AY8" t="s">
         <v>215</v>
       </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="AZ8" t="s">
         <v>216</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BA8">
         <v>3</v>
       </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BB8" t="s">
         <v>217</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BC8">
         <v>3</v>
       </c>
-      <c r="BD8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BG8" s="2">
+      <c r="BD8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG8">
         <v>63000</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BJ8">
         <v>32</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="BK8">
         <v>30</v>
       </c>
-      <c r="BM8" s="2" t="s">
+      <c r="BM8" t="s">
         <v>218</v>
       </c>
-      <c r="BN8" s="2" t="s">
+      <c r="BN8" t="s">
         <v>219</v>
       </c>
-      <c r="BO8" s="2" t="s">
+      <c r="BO8" t="s">
         <v>209</v>
       </c>
-      <c r="BP8" s="2">
+      <c r="BP8">
         <v>4</v>
       </c>
-      <c r="BQ8" s="2" t="s">
+      <c r="BQ8" t="s">
         <v>210</v>
       </c>
-      <c r="BR8" s="2" t="s">
+      <c r="BR8" t="s">
         <v>220</v>
       </c>
-      <c r="BY8" s="2">
+      <c r="BY8">
         <v>12</v>
       </c>
-      <c r="BZ8" s="2" t="s">
+      <c r="BZ8" t="s">
         <v>221</v>
       </c>
-      <c r="CA8" s="2" t="s">
+      <c r="CA8" t="s">
         <v>222</v>
       </c>
-      <c r="CR8" s="2" t="s">
+      <c r="CR8" t="s">
         <v>214</v>
       </c>
-      <c r="CS8" s="2" t="s">
+      <c r="CS8" t="s">
         <v>223</v>
       </c>
-      <c r="CT8" s="2">
+      <c r="CT8">
         <v>3</v>
       </c>
-      <c r="CU8" s="2" t="s">
+      <c r="CU8" t="s">
         <v>217</v>
       </c>
-      <c r="CV8" s="2">
+      <c r="CV8">
         <v>2</v>
       </c>
-      <c r="CW8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CX8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CY8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CZ8" s="2">
+      <c r="CW8" t="s">
+        <v>203</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>203</v>
+      </c>
+      <c r="CZ8">
         <v>76000</v>
       </c>
-      <c r="DC8" s="2" t="s">
+      <c r="DC8" t="s">
         <v>224</v>
       </c>
-      <c r="DD8" s="2" t="s">
+      <c r="DD8" t="s">
         <v>224</v>
       </c>
-      <c r="DF8" s="2" t="s">
+      <c r="DF8" t="s">
         <v>218</v>
       </c>
-      <c r="DG8" s="2" t="s">
+      <c r="DG8" t="s">
         <v>225</v>
       </c>
-      <c r="DH8" s="2" t="s">
+      <c r="DH8" t="s">
         <v>226</v>
       </c>
-      <c r="DI8" s="2" t="s">
+      <c r="DI8" t="s">
         <v>209</v>
       </c>
-      <c r="DJ8" s="2">
+      <c r="DJ8">
         <v>27</v>
       </c>
-      <c r="DK8" s="2" t="s">
+      <c r="DK8" t="s">
         <v>210</v>
       </c>
-      <c r="DL8" s="2" t="s">
+      <c r="DL8" t="s">
         <v>227</v>
       </c>
-      <c r="DS8" s="2">
+      <c r="DS8">
         <v>1</v>
       </c>
-      <c r="DT8" s="2" t="s">
+      <c r="DT8" t="s">
         <v>228</v>
       </c>
-      <c r="DU8" s="2" t="s">
+      <c r="DU8" t="s">
         <v>222</v>
       </c>
-      <c r="EJ8" s="2" t="s">
+      <c r="EJ8" t="s">
         <v>214</v>
       </c>
-      <c r="EL8" s="2" t="s">
+      <c r="EL8" t="s">
         <v>215</v>
       </c>
-      <c r="EM8" s="2" t="s">
+      <c r="EM8" t="s">
         <v>216</v>
       </c>
-      <c r="EN8" s="2">
+      <c r="EN8">
         <v>2</v>
       </c>
-      <c r="EO8" s="2" t="s">
+      <c r="EO8" t="s">
         <v>217</v>
       </c>
-      <c r="EP8" s="2">
+      <c r="EP8">
         <v>2</v>
       </c>
-      <c r="EQ8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="ER8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="ES8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="ET8" s="2">
+      <c r="EQ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>203</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>203</v>
+      </c>
+      <c r="ET8">
         <v>460000</v>
       </c>
-      <c r="EW8" s="2">
+      <c r="EW8">
         <v>30</v>
       </c>
-      <c r="EX8" s="2">
+      <c r="EX8">
         <v>22</v>
       </c>
-      <c r="EZ8" s="2" t="s">
+      <c r="EZ8" t="s">
         <v>218</v>
       </c>
-      <c r="FA8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FB8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FC8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FD8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FE8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FF8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FH8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FI8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FJ8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FK8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FL8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FM8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FN8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FO8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FP8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FQ8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FR8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FS8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FT8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FU8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FV8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FW8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FX8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FY8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="FZ8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GA8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GB8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GC8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GD8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GE8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GF8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GG8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GH8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GI8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GJ8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GK8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GL8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GM8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GN8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GO8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GP8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GQ8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GR8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GS8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GT8" s="2" t="s">
+      <c r="FA8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FP8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FV8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FX8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>203</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GA8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GB8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GD8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GE8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GF8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GG8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GH8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GM8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GN8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GO8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GP8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GQ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GR8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GS8" t="s">
+        <v>203</v>
+      </c>
+      <c r="GT8" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8684,19 +8121,19 @@
       <c r="W9">
         <v>10</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="2">
         <v>9</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AG9" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AH9" s="2" t="s">
         <v>222</v>
       </c>
       <c r="AY9" t="s">
@@ -9067,19 +8504,19 @@
       <c r="W10">
         <v>10</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="2">
         <v>9</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AG10" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AH10" s="2" t="s">
         <v>222</v>
       </c>
       <c r="AY10" t="s">
@@ -9450,19 +8887,19 @@
       <c r="W11">
         <v>10</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11" s="2">
         <v>9</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AH11" s="2" t="s">
         <v>222</v>
       </c>
       <c r="AY11" t="s">
@@ -9833,19 +9270,19 @@
       <c r="W12">
         <v>4</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF12" s="2">
         <v>9</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AG12" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AH12" s="2" t="s">
         <v>222</v>
       </c>
       <c r="AY12" t="s">
@@ -10216,19 +9653,19 @@
       <c r="W13">
         <v>4</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF13" s="2">
         <v>9</v>
       </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AG13" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AH13" s="2" t="s">
         <v>311</v>
       </c>
       <c r="AY13" t="s">
@@ -10575,7 +10012,7 @@
       <c r="W14">
         <v>15</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF14" s="2">
         <v>10</v>
       </c>
       <c r="AZ14" t="s">
@@ -10928,7 +10365,7 @@
       <c r="W15">
         <v>1</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AF15" s="2">
         <v>10</v>
       </c>
       <c r="AZ15" t="s">
@@ -11272,7 +10709,7 @@
       <c r="W16">
         <v>18</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF16" s="2">
         <v>10</v>
       </c>
       <c r="AZ16" t="s">
@@ -11628,7 +11065,7 @@
       <c r="W17">
         <v>29</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF17" s="2">
         <v>10</v>
       </c>
       <c r="AZ17" t="s">
@@ -12065,7 +11502,7 @@
       <c r="W18">
         <v>15</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF18" s="2">
         <v>10</v>
       </c>
       <c r="AZ18" t="s">
@@ -12421,7 +11858,7 @@
       <c r="W19">
         <v>7</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF19" s="2">
         <v>15</v>
       </c>
       <c r="AZ19" t="s">
@@ -12789,19 +12226,19 @@
       <c r="W20">
         <v>9</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF20" s="2">
         <v>17</v>
       </c>
-      <c r="AG20" s="3" t="s">
+      <c r="AG20" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AH20" s="3" t="s">
+      <c r="AH20" s="2" t="s">
         <v>222</v>
       </c>
       <c r="AY20" t="s">
@@ -13154,7 +12591,7 @@
       <c r="W21">
         <v>29</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF21" s="2">
         <v>19</v>
       </c>
       <c r="AZ21" t="s">
@@ -13522,7 +12959,7 @@
       <c r="W22">
         <v>28</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22" s="2">
         <v>20</v>
       </c>
       <c r="AZ22" t="s">
@@ -13819,9 +13256,9 @@
     <col min="65" max="65" width="6.36328125" customWidth="1"/>
     <col min="66" max="66" width="35.81640625" customWidth="1"/>
     <col min="67" max="67" width="22.36328125" customWidth="1"/>
-    <col min="69" max="76" width="8.7265625" style="3"/>
-    <col min="77" max="77" width="20.54296875" style="3" customWidth="1"/>
-    <col min="78" max="80" width="8.7265625" style="3"/>
+    <col min="69" max="76" width="8.7265625" style="2"/>
+    <col min="77" max="77" width="20.54296875" style="2" customWidth="1"/>
+    <col min="78" max="80" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:202" x14ac:dyDescent="0.35">
@@ -14023,40 +13460,40 @@
       <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BS1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BT1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BU1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BV1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BW1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BX1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BY1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CB1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="CC1" t="s">
@@ -17174,19 +16611,19 @@
       <c r="BP9">
         <v>26</v>
       </c>
-      <c r="BQ9" s="3" t="s">
+      <c r="BQ9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BR9" s="3" t="s">
+      <c r="BR9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="BY9" s="3">
+      <c r="BY9" s="2">
         <v>9</v>
       </c>
-      <c r="BZ9" s="3" t="s">
+      <c r="BZ9" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="CA9" s="3" t="s">
+      <c r="CA9" s="2" t="s">
         <v>222</v>
       </c>
       <c r="CQ9" t="s">
@@ -17566,7 +17003,7 @@
       <c r="BP10">
         <v>1</v>
       </c>
-      <c r="BY10" s="3">
+      <c r="BY10" s="2">
         <v>10</v>
       </c>
       <c r="CS10" t="s">
@@ -17910,7 +17347,7 @@
       <c r="BP11">
         <v>23</v>
       </c>
-      <c r="BY11" s="3">
+      <c r="BY11" s="2">
         <v>10</v>
       </c>
       <c r="CS11" t="s">
@@ -18278,25 +17715,25 @@
       <c r="BP12">
         <v>22</v>
       </c>
-      <c r="BQ12" s="3" t="s">
+      <c r="BQ12" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="BR12" s="3" t="s">
+      <c r="BR12" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="BS12" s="3" t="s">
+      <c r="BS12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BT12" s="3" t="s">
+      <c r="BT12" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="BY12" s="3">
+      <c r="BY12" s="2">
         <v>11</v>
       </c>
-      <c r="BZ12" s="3" t="s">
+      <c r="BZ12" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="CA12" s="3" t="s">
+      <c r="CA12" s="2" t="s">
         <v>474</v>
       </c>
       <c r="CC12" t="s">
@@ -18700,7 +18137,7 @@
       <c r="BP13">
         <v>1</v>
       </c>
-      <c r="BY13" s="3">
+      <c r="BY13" s="2">
         <v>15</v>
       </c>
       <c r="CS13" t="s">
@@ -18924,19 +18361,19 @@
       <c r="BP14">
         <v>22</v>
       </c>
-      <c r="BQ14" s="3" t="s">
+      <c r="BQ14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BR14" s="3" t="s">
+      <c r="BR14" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="BY14" s="3">
+      <c r="BY14" s="2">
         <v>17</v>
       </c>
-      <c r="BZ14" s="3" t="s">
+      <c r="BZ14" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="CA14" s="3" t="s">
+      <c r="CA14" s="2" t="s">
         <v>308</v>
       </c>
       <c r="CR14" t="s">
@@ -19289,7 +18726,7 @@
       <c r="BP15">
         <v>14</v>
       </c>
-      <c r="BY15" s="3">
+      <c r="BY15" s="2">
         <v>19</v>
       </c>
       <c r="CS15" t="s">
@@ -19564,19 +19001,19 @@
       <c r="BP16">
         <v>9</v>
       </c>
-      <c r="BQ16" s="3" t="s">
+      <c r="BQ16" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BR16" s="3" t="s">
+      <c r="BR16" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="BY16" s="3">
+      <c r="BY16" s="2">
         <v>21</v>
       </c>
-      <c r="BZ16" s="3" t="s">
+      <c r="BZ16" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="CA16" s="3" t="s">
+      <c r="CA16" s="2" t="s">
         <v>421</v>
       </c>
       <c r="CP16" t="s">
@@ -19932,25 +19369,25 @@
       <c r="BP17">
         <v>28</v>
       </c>
-      <c r="BQ17" s="3" t="s">
+      <c r="BQ17" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BR17" s="3" t="s">
+      <c r="BR17" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="BS17" s="3" t="s">
+      <c r="BS17" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="BT17" s="3" t="s">
+      <c r="BT17" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="BY17" s="3">
+      <c r="BY17" s="2">
         <v>22</v>
       </c>
-      <c r="BZ17" s="3" t="s">
+      <c r="BZ17" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="CA17" s="3" t="s">
+      <c r="CA17" s="2" t="s">
         <v>222</v>
       </c>
       <c r="CC17" t="s">
@@ -20405,7 +19842,7 @@
       <c r="BP18">
         <v>33</v>
       </c>
-      <c r="BY18" s="3">
+      <c r="BY18" s="2">
         <v>23</v>
       </c>
       <c r="CS18" t="s">
@@ -20656,25 +20093,25 @@
       <c r="BP19">
         <v>6</v>
       </c>
-      <c r="BQ19" s="3" t="s">
+      <c r="BQ19" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="BR19" s="3" t="s">
+      <c r="BR19" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="BS19" s="3" t="s">
+      <c r="BS19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BT19" s="3" t="s">
+      <c r="BT19" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="BY19" s="3">
+      <c r="BY19" s="2">
         <v>26</v>
       </c>
-      <c r="BZ19" s="3" t="s">
+      <c r="BZ19" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="CA19" s="3" t="s">
+      <c r="CA19" s="2" t="s">
         <v>432</v>
       </c>
       <c r="CC19" t="s">
@@ -20949,7 +20386,7 @@
     <col min="110" max="110" width="20.54296875" customWidth="1"/>
     <col min="111" max="111" width="13.36328125" customWidth="1"/>
     <col min="113" max="113" width="14.36328125" customWidth="1"/>
-    <col min="115" max="126" width="8.7265625" style="3"/>
+    <col min="115" max="126" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:202" x14ac:dyDescent="0.35">
@@ -21289,40 +20726,40 @@
       <c r="DJ1" t="s">
         <v>111</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DK1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DL1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DM1" s="3" t="s">
+      <c r="DM1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DN1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DO1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DP1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DR1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DS1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DT1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DU1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DV1" s="2" t="s">
         <v>123</v>
       </c>
       <c r="DW1" t="s">
@@ -22477,7 +21914,7 @@
       <c r="DJ4">
         <v>6</v>
       </c>
-      <c r="DS4" s="3">
+      <c r="DS4" s="2">
         <v>10</v>
       </c>
       <c r="EM4" t="s">
@@ -22701,25 +22138,25 @@
       <c r="DJ5">
         <v>20</v>
       </c>
-      <c r="DK5" s="3" t="s">
+      <c r="DK5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DL5" s="3" t="s">
+      <c r="DL5" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="DM5" s="3" t="s">
+      <c r="DM5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DN5" s="3" t="s">
+      <c r="DN5" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="DS5" s="3">
+      <c r="DS5" s="2">
         <v>11</v>
       </c>
-      <c r="DT5" s="3" t="s">
+      <c r="DT5" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="DU5" s="3" t="s">
+      <c r="DU5" s="2" t="s">
         <v>518</v>
       </c>
       <c r="DW5" t="s">
@@ -23105,19 +22542,19 @@
       <c r="DJ6">
         <v>23</v>
       </c>
-      <c r="DK6" s="3" t="s">
+      <c r="DK6" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DL6" s="3" t="s">
+      <c r="DL6" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="DS6" s="3">
+      <c r="DS6" s="2">
         <v>17</v>
       </c>
-      <c r="DT6" s="3" t="s">
+      <c r="DT6" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="DU6" s="3" t="s">
+      <c r="DU6" s="2" t="s">
         <v>308</v>
       </c>
       <c r="EL6" t="s">
@@ -23473,7 +22910,7 @@
       <c r="DJ7">
         <v>6</v>
       </c>
-      <c r="DS7" s="3">
+      <c r="DS7" s="2">
         <v>20</v>
       </c>
       <c r="EM7" t="s">
@@ -23790,28 +23227,28 @@
       <c r="DJ8">
         <v>5</v>
       </c>
-      <c r="DK8" s="3" t="s">
+      <c r="DK8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DL8" s="3" t="s">
+      <c r="DL8" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="DM8" s="3" t="s">
+      <c r="DM8" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="DN8" s="3" t="s">
+      <c r="DN8" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="DS8" s="3">
+      <c r="DS8" s="2">
         <v>22</v>
       </c>
-      <c r="DT8" s="3" t="s">
+      <c r="DT8" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="DU8" s="3" t="s">
+      <c r="DU8" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="DV8" s="3" t="s">
+      <c r="DV8" s="2" t="s">
         <v>291</v>
       </c>
       <c r="DW8" t="s">
@@ -24185,31 +23622,31 @@
       <c r="DJ9">
         <v>34</v>
       </c>
-      <c r="DK9" s="3" t="s">
+      <c r="DK9" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="DL9" s="3" t="s">
+      <c r="DL9" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="DM9" s="3" t="s">
+      <c r="DM9" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="DN9" s="3" t="s">
+      <c r="DN9" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="DO9" s="3" t="s">
+      <c r="DO9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DP9" s="3" t="s">
+      <c r="DP9" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="DS9" s="3">
+      <c r="DS9" s="2">
         <v>22</v>
       </c>
-      <c r="DT9" s="3" t="s">
+      <c r="DT9" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="DU9" s="3" t="s">
+      <c r="DU9" s="2" t="s">
         <v>562</v>
       </c>
       <c r="DW9" t="s">
@@ -24544,28 +23981,28 @@
       <c r="DJ10">
         <v>25</v>
       </c>
-      <c r="DK10" s="3" t="s">
+      <c r="DK10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DL10" s="3" t="s">
+      <c r="DL10" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="DM10" s="3" t="s">
+      <c r="DM10" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="DN10" s="3" t="s">
+      <c r="DN10" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="DS10" s="3">
+      <c r="DS10" s="2">
         <v>27</v>
       </c>
-      <c r="DT10" s="3" t="s">
+      <c r="DT10" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="DU10" s="3" t="s">
+      <c r="DU10" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="DV10" s="3" t="s">
+      <c r="DV10" s="2" t="s">
         <v>291</v>
       </c>
       <c r="DW10" t="s">
@@ -24927,19 +24364,19 @@
       <c r="DJ11">
         <v>12</v>
       </c>
-      <c r="DK11" s="3" t="s">
+      <c r="DK11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DL11" s="3" t="s">
+      <c r="DL11" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="DS11" s="3">
+      <c r="DS11" s="2">
         <v>29</v>
       </c>
-      <c r="DT11" s="3" t="s">
+      <c r="DT11" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="DU11" s="3" t="s">
+      <c r="DU11" s="2" t="s">
         <v>238</v>
       </c>
       <c r="EJ11" t="s">
@@ -25271,19 +24708,19 @@
       <c r="DJ12">
         <v>13</v>
       </c>
-      <c r="DK12" s="3" t="s">
+      <c r="DK12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DL12" s="3" t="s">
+      <c r="DL12" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="DS12" s="3">
+      <c r="DS12" s="2">
         <v>29</v>
       </c>
-      <c r="DT12" s="3" t="s">
+      <c r="DT12" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="DU12" s="3" t="s">
+      <c r="DU12" s="2" t="s">
         <v>238</v>
       </c>
       <c r="EJ12" t="s">
@@ -25482,9 +24919,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="159" max="166" width="8.7265625" style="3"/>
-    <col min="167" max="167" width="18.1796875" style="3" customWidth="1"/>
-    <col min="168" max="170" width="8.7265625" style="3"/>
+    <col min="159" max="166" width="8.7265625" style="2"/>
+    <col min="167" max="167" width="18.1796875" style="2" customWidth="1"/>
+    <col min="168" max="170" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:200" x14ac:dyDescent="0.35">
@@ -25962,40 +25399,40 @@
       <c r="FB1" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FC1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="3" t="s">
+      <c r="FD1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="3" t="s">
+      <c r="FE1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="3" t="s">
+      <c r="FF1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FG1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FH1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FI1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FK1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FL1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FM1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FN1" s="2" t="s">
         <v>169</v>
       </c>
       <c r="FO1" t="s">
@@ -26372,19 +25809,19 @@
       <c r="FB2">
         <v>22</v>
       </c>
-      <c r="FC2" s="3" t="s">
+      <c r="FC2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="FD2" s="3" t="s">
+      <c r="FD2" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="FK2" s="3">
+      <c r="FK2" s="2">
         <v>22</v>
       </c>
-      <c r="FL2" s="3" t="s">
+      <c r="FL2" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="FM2" s="3" t="s">
+      <c r="FM2" s="2" t="s">
         <v>222</v>
       </c>
       <c r="GD2" t="s">
@@ -26445,7 +25882,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="26.36328125" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
-    <col min="30" max="30" width="13.36328125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:200" x14ac:dyDescent="0.35">
@@ -26536,7 +25973,7 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
@@ -27120,7 +26557,7 @@
       <c r="W2" t="s">
         <v>211</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2">
         <v>2</v>
       </c>
       <c r="AE2" t="s">
@@ -27497,7 +26934,7 @@
       <c r="U3">
         <v>15</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3">
         <v>10</v>
       </c>
       <c r="AX3" t="s">
@@ -27850,7 +27287,7 @@
       <c r="W4" t="s">
         <v>247</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4">
         <v>9</v>
       </c>
       <c r="AE4" t="s">
@@ -28227,7 +27664,7 @@
       <c r="W5" t="s">
         <v>247</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5">
         <v>9</v>
       </c>
       <c r="AE5" t="s">
@@ -28604,7 +28041,7 @@
       <c r="W6" t="s">
         <v>247</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>9</v>
       </c>
       <c r="AE6" t="s">
@@ -28981,7 +28418,7 @@
       <c r="W7" t="s">
         <v>247</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>9</v>
       </c>
       <c r="AE7" t="s">
@@ -29352,7 +28789,7 @@
       <c r="U8">
         <v>29</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>19</v>
       </c>
       <c r="AX8" t="s">
@@ -29720,7 +29157,7 @@
       <c r="W9" t="s">
         <v>211</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>2</v>
       </c>
       <c r="AE9" t="s">
@@ -30106,7 +29543,7 @@
       <c r="U10">
         <v>7</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>15</v>
       </c>
       <c r="AX10" t="s">
@@ -30474,7 +29911,7 @@
       <c r="W11" t="s">
         <v>247</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>9</v>
       </c>
       <c r="AE11" t="s">
@@ -30821,7 +30258,7 @@
       <c r="U12">
         <v>1</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>10</v>
       </c>
       <c r="AX12" t="s">
@@ -31159,7 +30596,7 @@
       <c r="U13">
         <v>18</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>10</v>
       </c>
       <c r="AX13" t="s">
@@ -31509,7 +30946,7 @@
       <c r="U14">
         <v>29</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>10</v>
       </c>
       <c r="AX14" t="s">
@@ -31946,7 +31383,7 @@
       <c r="W15" t="s">
         <v>211</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>2</v>
       </c>
       <c r="AE15" t="s">
@@ -32473,7 +31910,7 @@
       <c r="U16">
         <v>15</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>10</v>
       </c>
       <c r="AX16" t="s">
@@ -32823,7 +32260,7 @@
       <c r="U17">
         <v>28</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>20</v>
       </c>
       <c r="AX17" t="s">
@@ -33167,7 +32604,7 @@
       <c r="W18" t="s">
         <v>227</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>1</v>
       </c>
       <c r="AE18" t="s">
@@ -33508,7 +32945,7 @@
       <c r="W19" t="s">
         <v>211</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>2</v>
       </c>
       <c r="AE19" t="s">
@@ -33849,7 +33286,7 @@
       <c r="W20" t="s">
         <v>211</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>2</v>
       </c>
       <c r="AE20" t="s">
@@ -34190,7 +33627,7 @@
       <c r="W21" t="s">
         <v>373</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>17</v>
       </c>
       <c r="AE21" t="s">
@@ -34549,7 +33986,7 @@
       <c r="W22" t="s">
         <v>211</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>2</v>
       </c>
       <c r="AE22" t="s">
@@ -34890,7 +34327,7 @@
       <c r="W23" t="s">
         <v>211</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>2</v>
       </c>
       <c r="AE23" t="s">
@@ -35159,7 +34596,7 @@
       <c r="W24" t="s">
         <v>211</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>2</v>
       </c>
       <c r="AE24" t="s">
@@ -35551,7 +34988,7 @@
       <c r="W25" t="s">
         <v>211</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>2</v>
       </c>
       <c r="AE25" t="s">
@@ -35940,7 +35377,7 @@
       <c r="W26" t="s">
         <v>211</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>2</v>
       </c>
       <c r="AE26" t="s">
@@ -36332,7 +35769,7 @@
       <c r="W27" t="s">
         <v>211</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>2</v>
       </c>
       <c r="AE27" t="s">
@@ -36718,7 +36155,7 @@
       <c r="W28" t="s">
         <v>211</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>2</v>
       </c>
       <c r="AE28" t="s">
@@ -37104,7 +36541,7 @@
       <c r="W29" t="s">
         <v>211</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>2</v>
       </c>
       <c r="AE29" t="s">
@@ -37496,7 +36933,7 @@
       <c r="W30" t="s">
         <v>211</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>2</v>
       </c>
       <c r="AE30" t="s">
@@ -37852,7 +37289,7 @@
       <c r="U31">
         <v>21</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>3</v>
       </c>
       <c r="AX31" t="s">
@@ -38190,7 +37627,7 @@
       <c r="U32">
         <v>31</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>5</v>
       </c>
       <c r="AX32" t="s">
@@ -38567,7 +38004,7 @@
       <c r="U33">
         <v>12</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>3</v>
       </c>
       <c r="AX33" t="s">
@@ -38929,7 +38366,7 @@
       <c r="U34">
         <v>26</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>4</v>
       </c>
       <c r="AX34" t="s">
@@ -39378,7 +38815,7 @@
       <c r="W35" t="s">
         <v>211</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>2</v>
       </c>
       <c r="AE35" t="s">
@@ -39773,7 +39210,7 @@
       <c r="U36">
         <v>5</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>5</v>
       </c>
       <c r="AX36" t="s">
@@ -40114,7 +39551,7 @@
       <c r="U37">
         <v>20</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>3</v>
       </c>
       <c r="AX37" t="s">
@@ -40455,7 +39892,7 @@
       <c r="W38" t="s">
         <v>211</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>2</v>
       </c>
       <c r="AE38" t="s">
@@ -40706,7 +40143,7 @@
       <c r="Y39" t="s">
         <v>323</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AD39">
         <v>27</v>
       </c>
       <c r="AE39" t="s">
@@ -40975,7 +40412,7 @@
       <c r="AC40" t="s">
         <v>203</v>
       </c>
-      <c r="AD40" s="2" t="s">
+      <c r="AD40" t="s">
         <v>203</v>
       </c>
       <c r="AE40" t="s">
@@ -41298,7 +40735,7 @@
       <c r="W41" t="s">
         <v>211</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>2</v>
       </c>
       <c r="AE41" t="s">
@@ -41684,7 +41121,7 @@
       <c r="U42">
         <v>16</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>3</v>
       </c>
       <c r="AX42" t="s">
@@ -42025,7 +41462,7 @@
       <c r="U43">
         <v>21</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>5</v>
       </c>
       <c r="AX43" t="s">
@@ -42381,7 +41818,7 @@
       <c r="W44" t="s">
         <v>211</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>2</v>
       </c>
       <c r="AE44" t="s">
@@ -42758,7 +42195,7 @@
       <c r="U45">
         <v>2</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>3</v>
       </c>
       <c r="AX45" t="s">
@@ -43102,7 +42539,7 @@
       <c r="U46">
         <v>31</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>4</v>
       </c>
       <c r="AX46" t="s">
@@ -43461,7 +42898,7 @@
       <c r="W47" t="s">
         <v>227</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>1</v>
       </c>
       <c r="AE47" t="s">
@@ -43817,7 +43254,7 @@
       <c r="U48">
         <v>20</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>5</v>
       </c>
       <c r="AX48" t="s">
@@ -44161,7 +43598,7 @@
       <c r="W49" t="s">
         <v>211</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>2</v>
       </c>
       <c r="AE49" t="s">
@@ -44571,7 +44008,7 @@
       <c r="Y50" t="s">
         <v>220</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>12</v>
       </c>
       <c r="AE50" t="s">
@@ -44915,7 +44352,7 @@
       <c r="Y51" t="s">
         <v>323</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>27</v>
       </c>
       <c r="AE51" t="s">
@@ -45184,7 +44621,7 @@
       <c r="AC52" t="s">
         <v>203</v>
       </c>
-      <c r="AD52" s="2" t="s">
+      <c r="AD52" t="s">
         <v>203</v>
       </c>
       <c r="AE52" t="s">
